--- a/src/基础表格.xlsx
+++ b/src/基础表格.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13160"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -157,8 +157,7 @@
   </si>
   <si>
     <t>备注：1、数据来源为查询安徽水信息网所得；
-     2、浅蓝色为超设防水位，深蓝色为超警戒水位，红色为超保证水位；
-     3、近期每周发布一次，达设防水位每日发布一次，并视水情动态调整发布频率。</t>
+     2、浅蓝色为超设防水位，深蓝色为超警戒水位，红色为超保证水位。</t>
   </si>
   <si>
     <t xml:space="preserve">    </t>
@@ -176,7 +175,7 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="\+0.00;\-0.00"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,12 +215,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -809,137 +802,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -976,6 +969,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -988,6 +984,12 @@
     <xf numFmtId="176" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -998,6 +1000,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1006,37 +1011,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1361,10 +1348,10 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="2" customWidth="1"/>
@@ -1427,10 +1414,10 @@
       <c r="H3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="29" t="s">
+      <c r="I3" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="29"/>
+      <c r="J3" s="27"/>
     </row>
     <row r="4" s="3" customFormat="1" ht="20" customHeight="1" spans="1:10">
       <c r="A4" s="10"/>
@@ -1448,293 +1435,293 @@
       <c r="G4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="29" t="s">
+      <c r="I4" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="J4" s="27" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" s="4" customFormat="1" ht="40.25" customHeight="1" spans="1:10">
-      <c r="A5" s="12">
+    <row r="5" s="4" customFormat="1" ht="38.25" customHeight="1" spans="1:10">
+      <c r="A5" s="13">
         <v>1</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="26">
-        <f>D5-F5</f>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="18">
+        <f>D5-E5</f>
         <v>0</v>
       </c>
-      <c r="I5" s="30">
+      <c r="I5" s="28">
         <v>44025</v>
       </c>
-      <c r="J5" s="31">
+      <c r="J5" s="29">
         <v>15.21</v>
       </c>
     </row>
-    <row r="6" s="4" customFormat="1" ht="40.25" customHeight="1" spans="1:10">
-      <c r="A6" s="16">
+    <row r="6" s="4" customFormat="1" ht="38.25" customHeight="1" spans="1:10">
+      <c r="A6" s="19">
         <v>2</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="26">
-        <f t="shared" ref="H6:H14" si="0">D6-F6</f>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="18">
+        <f t="shared" ref="H6:H14" si="0">D6-E6</f>
         <v>0</v>
       </c>
-      <c r="I6" s="30">
+      <c r="I6" s="28">
         <v>44033</v>
       </c>
-      <c r="J6" s="31">
+      <c r="J6" s="29">
         <v>12.76</v>
       </c>
     </row>
-    <row r="7" s="4" customFormat="1" ht="40.25" customHeight="1" spans="1:10">
-      <c r="A7" s="16">
+    <row r="7" s="4" customFormat="1" ht="38.25" customHeight="1" spans="1:10">
+      <c r="A7" s="19">
         <v>3</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="26">
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="30">
+      <c r="I7" s="28">
         <v>44033</v>
       </c>
-      <c r="J7" s="32">
+      <c r="J7" s="30">
         <v>12.72</v>
       </c>
     </row>
-    <row r="8" s="4" customFormat="1" ht="40.25" customHeight="1" spans="1:10">
-      <c r="A8" s="16">
+    <row r="8" s="4" customFormat="1" ht="38.25" customHeight="1" spans="1:10">
+      <c r="A8" s="19">
         <v>4</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="26">
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="30">
+      <c r="I8" s="28">
         <v>44029</v>
       </c>
-      <c r="J8" s="31">
+      <c r="J8" s="29">
         <v>13.19</v>
       </c>
     </row>
-    <row r="9" s="4" customFormat="1" ht="40.25" customHeight="1" spans="1:10">
-      <c r="A9" s="16">
+    <row r="9" s="4" customFormat="1" ht="38.25" customHeight="1" spans="1:10">
+      <c r="A9" s="19">
         <v>5</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="26">
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="30">
+      <c r="I9" s="28">
         <v>44033</v>
       </c>
-      <c r="J9" s="32">
+      <c r="J9" s="30">
         <v>12.72</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" ht="40.25" customHeight="1" spans="1:10">
-      <c r="A10" s="16">
+    <row r="10" s="4" customFormat="1" ht="38.25" customHeight="1" spans="1:10">
+      <c r="A10" s="19">
         <v>6</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="26">
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="30">
+      <c r="I10" s="28">
         <v>44033</v>
       </c>
-      <c r="J10" s="32">
+      <c r="J10" s="30">
         <v>12.77</v>
       </c>
     </row>
-    <row r="11" s="4" customFormat="1" ht="40.25" customHeight="1" spans="1:10">
-      <c r="A11" s="16">
+    <row r="11" s="4" customFormat="1" ht="38.25" customHeight="1" spans="1:10">
+      <c r="A11" s="19">
         <v>7</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="26">
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="30">
+      <c r="I11" s="28">
         <v>44030</v>
       </c>
-      <c r="J11" s="32">
+      <c r="J11" s="30">
         <v>12.1</v>
       </c>
     </row>
-    <row r="12" s="4" customFormat="1" ht="40.25" customHeight="1" spans="1:10">
-      <c r="A12" s="16">
+    <row r="12" s="4" customFormat="1" ht="38.25" customHeight="1" spans="1:10">
+      <c r="A12" s="19">
         <v>8</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="26">
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="30">
+      <c r="I12" s="28">
         <v>44025</v>
       </c>
-      <c r="J12" s="32">
+      <c r="J12" s="30">
         <v>15.21</v>
       </c>
     </row>
-    <row r="13" s="4" customFormat="1" ht="40.25" customHeight="1" spans="1:10">
-      <c r="A13" s="16">
+    <row r="13" s="4" customFormat="1" ht="38.25" customHeight="1" spans="1:10">
+      <c r="A13" s="19">
         <v>9</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="26">
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="30">
+      <c r="I13" s="28">
         <v>44025</v>
       </c>
-      <c r="J13" s="32">
+      <c r="J13" s="30">
         <v>15.21</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" ht="40.25" customHeight="1" spans="1:10">
-      <c r="A14" s="20">
+    <row r="14" s="2" customFormat="1" ht="38.25" customHeight="1" spans="1:10">
+      <c r="A14" s="24">
         <v>10</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="26">
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="30">
+      <c r="I14" s="28">
         <v>44025</v>
       </c>
-      <c r="J14" s="32">
+      <c r="J14" s="30">
         <v>15.21</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" ht="42" customHeight="1" spans="1:10">
-      <c r="A15" s="21" t="s">
+    <row r="15" s="2" customFormat="1" ht="34" customHeight="1" spans="1:10">
+      <c r="A15" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
     </row>
     <row r="16" s="2" customFormat="1" spans="1:10">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1746,8 +1733,7 @@
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
   </mergeCells>
-  <pageMargins left="0.554861111111111" right="0.554861111111111" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>